--- a/filtered_data.xlsx
+++ b/filtered_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
   <si>
     <t>Город</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>Ссылка на страницу</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургский государственный университет телекоммуникаций им. проф. М.А.Бонч-Бруевича</t>
+  </si>
+  <si>
+    <t>Драсте епта</t>
+  </si>
+  <si>
+    <t>Общежитие Дальневосточное, входная зона</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/oAXqcby8jbjSrg, вввв</t>
   </si>
   <si>
     <t>Москва</t>
@@ -423,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -468,19 +483,138 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_data.xlsx
+++ b/filtered_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Город</t>
   </si>
@@ -32,21 +32,6 @@
   </si>
   <si>
     <t>Ссылка на страницу</t>
-  </si>
-  <si>
-    <t>Москва</t>
-  </si>
-  <si>
-    <t>Московский университет им. С. Ю. Витте</t>
-  </si>
-  <si>
-    <t>2-й Кожуховский пр-д. 12 стр 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Главный корп.,  рядом со столовой </t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1yeyMCdgq6JUT2WCBtpOq-4_f_CQcuU1g/view?usp=sharing, https://drive.google.com/file/d/1aQW-gSXjmT6XZ2Xp_mXN6gEHwxH6v_Fx/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -423,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -447,40 +432,6 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
